--- a/Reports/Сравнение блочного и обычного алгоритмов.xlsx
+++ b/Reports/Сравнение блочного и обычного алгоритмов.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>Время исполнения алгоритма</t>
   </si>
@@ -38,6 +38,42 @@
   </si>
   <si>
     <t>Сравнение стандартоного алгоритма и блочного без использования блочного умножения матриц и параллелизма</t>
+  </si>
+  <si>
+    <t>Кофигурация системы:</t>
+  </si>
+  <si>
+    <t>CPU:</t>
+  </si>
+  <si>
+    <t>Число ядер:</t>
+  </si>
+  <si>
+    <t>Объём ОЗУ:</t>
+  </si>
+  <si>
+    <t>OC:</t>
+  </si>
+  <si>
+    <t>Компилятор:</t>
+  </si>
+  <si>
+    <t>i5-7600 3,5 ГГц</t>
+  </si>
+  <si>
+    <t>8 гб</t>
+  </si>
+  <si>
+    <t>Windows 10 pro</t>
+  </si>
+  <si>
+    <t>MVS C++ 2019</t>
+  </si>
+  <si>
+    <t>Сравнение стандартоного алгоритма и блочного c использованием  параллелизма, но без блочного умножения матриц</t>
+  </si>
+  <si>
+    <t>r - Размер блока</t>
   </si>
 </sst>
 </file>
@@ -73,18 +109,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -389,18 +429,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:I10"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D5"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
       <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
@@ -409,38 +458,92 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="K1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D3" s="2" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D5" s="2"/>
-      <c r="E5" s="3" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F5" t="s">
@@ -455,8 +558,30 @@
       <c r="I5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="K5" s="3"/>
+      <c r="L5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D6" s="1">
         <v>500</v>
       </c>
@@ -475,8 +600,26 @@
       <c r="I6">
         <v>5.7000000000000002E-2</v>
       </c>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="1">
+        <v>500</v>
+      </c>
+      <c r="L6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="M6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="N6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="O6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="P6">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D7" s="1">
         <v>1000</v>
       </c>
@@ -495,8 +638,26 @@
       <c r="I7">
         <v>0.71199999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="K7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L7">
+        <v>0.188</v>
+      </c>
+      <c r="M7">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="N7">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="O7">
+        <v>0.2</v>
+      </c>
+      <c r="P7">
+        <v>0.21299999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D8" s="1">
         <v>2000</v>
       </c>
@@ -515,8 +676,26 @@
       <c r="I8">
         <v>4.4589999999999996</v>
       </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="1">
+        <v>2000</v>
+      </c>
+      <c r="L8">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="M8">
+        <v>1.07</v>
+      </c>
+      <c r="N8">
+        <v>1.036</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.0269999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
         <v>3000</v>
       </c>
@@ -535,8 +714,26 @@
       <c r="I9">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="K9" s="1">
+        <v>3000</v>
+      </c>
+      <c r="L9">
+        <v>2.6</v>
+      </c>
+      <c r="M9">
+        <v>3.7</v>
+      </c>
+      <c r="N9">
+        <v>3.62</v>
+      </c>
+      <c r="O9">
+        <v>3.7170000000000001</v>
+      </c>
+      <c r="P9">
+        <v>3.7730000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="D10" s="1">
         <v>4000</v>
       </c>
@@ -555,12 +752,39 @@
       <c r="I10">
         <v>41.9</v>
       </c>
+      <c r="K10" s="1">
+        <v>4000</v>
+      </c>
+      <c r="L10">
+        <v>6.6</v>
+      </c>
+      <c r="M10">
+        <v>9.1</v>
+      </c>
+      <c r="N10">
+        <v>9.5</v>
+      </c>
+      <c r="O10">
+        <v>9.57</v>
+      </c>
+      <c r="P10">
+        <v>9.7409999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="K1:P2"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="L3:P4"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:I4"/>
     <mergeCell ref="D1:I2"/>
+    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Reports/Сравнение блочного и обычного алгоритмов.xlsx
+++ b/Reports/Сравнение блочного и обычного алгоритмов.xlsx
@@ -109,22 +109,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -140,6 +143,2719 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Сравнение стандартоного алгоритма и блочного без использования блочного умножения матриц и параллелизма</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17068044619422573"/>
+          <c:y val="2.2955520215167332E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>---</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$6:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$6:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.2000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4889999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>r=64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$6:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$6:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4589999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.550999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>r=128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$6:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$G$6:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1929999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>r=196</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$D$6:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$H$6:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.392000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="83449296"/>
+        <c:axId val="83451256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="83449296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Размер матрицы</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83451256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="83451256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время выполнения</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83449296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Сравнение стандартоного алгоритма и блочного </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>c </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>использованием  параллелизма, но без блочного умножения матриц</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31223600174978128"/>
+          <c:y val="1.8518518518518517E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>---</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$K$6:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$L$6:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.92100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>r=64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$K$6:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$M$6:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$N$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>r=128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$K$6:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$N$6:$N$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.7000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.036</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$O$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>r=196</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$K$6:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$O$6:$O$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="232608216"/>
+        <c:axId val="232611352"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="232608216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Размер</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> матрицы</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="232611352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="232611352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Время выполнения</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="700">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="232608216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -432,7 +3148,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,11 +3161,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
       <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
@@ -468,10 +3184,10 @@
       <c r="P1" s="4"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="4"/>
@@ -488,61 +3204,61 @@
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="K3" s="3" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="K3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
@@ -558,7 +3274,7 @@
       <c r="I5" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="7"/>
       <c r="L5" s="2" t="s">
         <v>2</v>
       </c>
@@ -576,7 +3292,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -778,14 +3494,15 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="K1:P2"/>
-    <mergeCell ref="K3:K5"/>
     <mergeCell ref="L3:P4"/>
-    <mergeCell ref="D3:D5"/>
     <mergeCell ref="E3:I4"/>
     <mergeCell ref="D1:I2"/>
-    <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Reports/Сравнение блочного и обычного алгоритмов.xlsx
+++ b/Reports/Сравнение блочного и обычного алгоритмов.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Время исполнения алгоритма</t>
   </si>
@@ -75,6 +75,21 @@
   <si>
     <t>r - Размер блока</t>
   </si>
+  <si>
+    <t>L1 Кэш:</t>
+  </si>
+  <si>
+    <t>L3 Кэш:</t>
+  </si>
+  <si>
+    <t>256 кб</t>
+  </si>
+  <si>
+    <t>1024 кб</t>
+  </si>
+  <si>
+    <t>6 мб</t>
+  </si>
 </sst>
 </file>
 
@@ -117,16 +132,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -588,11 +603,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="83449296"/>
-        <c:axId val="83451256"/>
+        <c:axId val="96649376"/>
+        <c:axId val="96646240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83449296"/>
+        <c:axId val="96649376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -705,12 +720,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83451256"/>
+        <c:crossAx val="96646240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83451256"/>
+        <c:axId val="96646240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -823,7 +838,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83449296"/>
+        <c:crossAx val="96649376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1355,11 +1370,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="232608216"/>
-        <c:axId val="232611352"/>
+        <c:axId val="96646632"/>
+        <c:axId val="147555480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="232608216"/>
+        <c:axId val="96646632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1477,12 +1492,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232611352"/>
+        <c:crossAx val="147555480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="232611352"/>
+        <c:axId val="147555480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1600,7 +1615,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232608216"/>
+        <c:crossAx val="96646632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3148,7 +3163,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3161,27 +3176,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="K1" s="4" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -3190,75 +3205,75 @@
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="K3" s="5" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="K3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7"/>
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="4"/>
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
@@ -3274,7 +3289,7 @@
       <c r="I5" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="7"/>
+      <c r="K5" s="4"/>
       <c r="L5" s="2" t="s">
         <v>2</v>
       </c>
@@ -3293,10 +3308,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
       </c>
       <c r="D6" s="1">
         <v>500</v>
@@ -3336,6 +3351,12 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D7" s="1">
         <v>1000</v>
       </c>
@@ -3374,6 +3395,12 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D8" s="1">
         <v>2000</v>
       </c>
@@ -3412,6 +3439,12 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D9" s="1">
         <v>3000</v>
       </c>

--- a/Reports/Сравнение блочного и обычного алгоритмов.xlsx
+++ b/Reports/Сравнение блочного и обычного алгоритмов.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Время исполнения алгоритма</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>6 мб</t>
+  </si>
+  <si>
+    <t>L2 Кэш:</t>
   </si>
 </sst>
 </file>
@@ -603,11 +606,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="96649376"/>
-        <c:axId val="96646240"/>
+        <c:axId val="82697320"/>
+        <c:axId val="141708512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96649376"/>
+        <c:axId val="82697320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -720,12 +723,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96646240"/>
+        <c:crossAx val="141708512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96646240"/>
+        <c:axId val="141708512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -838,7 +841,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96649376"/>
+        <c:crossAx val="82697320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1370,11 +1373,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="96646632"/>
-        <c:axId val="147555480"/>
+        <c:axId val="141705376"/>
+        <c:axId val="141703808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96646632"/>
+        <c:axId val="141705376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1492,12 +1495,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147555480"/>
+        <c:crossAx val="141703808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147555480"/>
+        <c:axId val="141703808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1615,7 +1618,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="96646632"/>
+        <c:crossAx val="141705376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3163,7 +3166,7 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3248,7 +3251,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
